--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/ya113_hw_ac_uk/Documents/Shared_internships/Internship2022_Cameron_Barker/Codes/PSSN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/ya113_hw_ac_uk/Documents/Shared_internships/Internship2022_Cameron_Barker/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="11_F25DC773A252ABDACC1048CF619B7D0C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9324E739-A476-437C-ABA8-6876E2D23751}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="11_F25DC773A252ABDACC1048CF619B7D0C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B55190-C7D7-46CD-B7BE-2D2ED0CA40A6}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="5070" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="3660" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -180,13 +180,25 @@
   </si>
   <si>
     <t>C^</t>
+  </si>
+  <si>
+    <t>OLD RESULTS BELOW, Accuracy should still be possible to get but the parameters used are no longer accurate</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>Using 15000 encoded samples from the 150 iris samples, see DataEncoding.jl and data/iris/iris.jld2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +212,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,12 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,306 +553,141 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="E3">
-        <v>1E-4</v>
-      </c>
-      <c r="G3">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>84000</v>
-      </c>
-      <c r="G5">
-        <v>81</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>37</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>84000</v>
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
+      <c r="L6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="E8">
-        <v>1E-4</v>
-      </c>
-      <c r="G8">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>100000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F10">
-        <v>0.1</v>
-      </c>
-      <c r="G10">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>60</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-      <c r="G11">
-        <v>33</v>
-      </c>
-      <c r="I11">
-        <v>65</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>1E-4</v>
-      </c>
-      <c r="F12">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G12">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>12</v>
-      </c>
-      <c r="I12">
-        <v>51</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1E-4</v>
-      </c>
-      <c r="F13">
-        <v>0.1</v>
-      </c>
-      <c r="G13">
-        <v>60</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="L12" t="s">
         <v>50</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F14">
-        <v>0.1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>1E-3</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -832,165 +695,77 @@
       <c r="C16">
         <v>10000</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
         <v>1E-4</v>
       </c>
-      <c r="F16">
-        <v>0.9</v>
-      </c>
       <c r="G16">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>10000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1E-4</v>
-      </c>
-      <c r="F17">
-        <v>0.1</v>
-      </c>
-      <c r="G17">
-        <v>62</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>53</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>10000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1E-4</v>
-      </c>
-      <c r="F18">
-        <v>0.01</v>
+        <v>84000</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>10000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1E-4</v>
-      </c>
-      <c r="F19">
-        <v>0.01</v>
+        <v>84000</v>
       </c>
       <c r="G19">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1E-3</v>
-      </c>
-      <c r="F20">
-        <v>1E-3</v>
-      </c>
-      <c r="G20">
-        <v>78</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>41</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -998,68 +773,13 @@
       <c r="C21">
         <v>10000</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
       <c r="E21">
         <v>1E-4</v>
       </c>
-      <c r="F21">
-        <v>1E-3</v>
-      </c>
       <c r="G21">
-        <v>76</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>42</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>10000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>1E-4</v>
-      </c>
-      <c r="F22">
-        <v>0.01</v>
-      </c>
-      <c r="G22">
-        <v>77</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>42</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>23</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1069,48 +789,68 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>10000</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
+        <v>100000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F24">
         <v>0.01</v>
       </c>
-      <c r="G23">
-        <v>80</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>40</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="2"/>
+      <c r="G24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>65</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>10000</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>1E-4</v>
@@ -1119,19 +859,16 @@
         <v>0.01</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1139,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>10000</v>
@@ -1151,22 +888,19 @@
         <v>1E-4</v>
       </c>
       <c r="F26">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <v>50</v>
       </c>
       <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="L26" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1174,34 +908,22 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>10000</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F27">
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>73</v>
-      </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>48</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
+        <v>0.1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1209,19 +931,51 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>10000</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F28">
-        <v>0.01</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>1E-4</v>
+      </c>
+      <c r="F29">
+        <v>0.9</v>
+      </c>
+      <c r="G29">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1229,34 +983,31 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>10000</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>1E-4</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G30">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1264,7 +1015,7 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -1279,27 +1030,24 @@
         <v>0.01</v>
       </c>
       <c r="G31">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H31">
         <v>8</v>
       </c>
       <c r="I31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
-      <c r="L31" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -1314,59 +1062,100 @@
         <v>0.01</v>
       </c>
       <c r="G32">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
-      <c r="K32" t="s">
-        <v>31</v>
-      </c>
       <c r="L32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>1E-3</v>
+      </c>
+      <c r="F33">
+        <v>1E-3</v>
+      </c>
+      <c r="G33">
+        <v>78</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>10000</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1E-4</v>
+      </c>
+      <c r="F34">
+        <v>1E-3</v>
       </c>
       <c r="G34">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -1374,10 +1163,345 @@
       <c r="D35" t="s">
         <v>22</v>
       </c>
+      <c r="E35">
+        <v>1E-4</v>
+      </c>
+      <c r="F35">
+        <v>0.01</v>
+      </c>
       <c r="G35">
+        <v>77</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>42</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>10000</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>1E-4</v>
+      </c>
+      <c r="F36">
+        <v>0.01</v>
+      </c>
+      <c r="G36">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>1E-4</v>
+      </c>
+      <c r="F38">
+        <v>0.01</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>58</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>1E-4</v>
+      </c>
+      <c r="F39">
+        <v>0.01</v>
+      </c>
+      <c r="G39">
+        <v>69</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>10000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>1E-4</v>
+      </c>
+      <c r="F40">
+        <v>0.01</v>
+      </c>
+      <c r="G40">
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>48</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>1E-4</v>
+      </c>
+      <c r="F41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>1E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.01</v>
+      </c>
+      <c r="G43">
+        <v>73</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>46</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>10000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>1E-4</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44">
+        <v>72</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>1E-4</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
+        <v>76</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>10000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>10000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48">
         <v>75</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1391,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86FE31D-A8C6-47E7-A2BE-E7E3671A43C0}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
